--- a/Code/Results/Cases/Case_3_208/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12066508047205</v>
+        <v>16.67683263635534</v>
       </c>
       <c r="C2">
-        <v>18.5071763673947</v>
+        <v>10.38097268680016</v>
       </c>
       <c r="D2">
-        <v>3.553898362447192</v>
+        <v>5.193486321225011</v>
       </c>
       <c r="F2">
-        <v>34.02244805858475</v>
+        <v>30.80293401150741</v>
       </c>
       <c r="G2">
-        <v>2.051122619213306</v>
+        <v>3.63629011236276</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.32294356700521</v>
+        <v>16.03883890731553</v>
       </c>
       <c r="C3">
-        <v>17.21087892886637</v>
+        <v>9.771977088523654</v>
       </c>
       <c r="D3">
-        <v>3.679471898860305</v>
+        <v>5.229356604354764</v>
       </c>
       <c r="F3">
-        <v>32.23415050789158</v>
+        <v>30.47596236322454</v>
       </c>
       <c r="G3">
-        <v>2.063671027823776</v>
+        <v>3.640457525200651</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.16404985398542</v>
+        <v>15.63869190515078</v>
       </c>
       <c r="C4">
-        <v>16.37545588287091</v>
+        <v>9.379887392140407</v>
       </c>
       <c r="D4">
-        <v>3.759503404831402</v>
+        <v>5.252441166776948</v>
       </c>
       <c r="F4">
-        <v>31.14658319201867</v>
+        <v>30.28681697868037</v>
       </c>
       <c r="G4">
-        <v>2.071507428230482</v>
+        <v>3.643144890481822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.67766943158848</v>
+        <v>15.473792629928</v>
       </c>
       <c r="C5">
-        <v>16.02488370029546</v>
+        <v>9.215678490133755</v>
       </c>
       <c r="D5">
-        <v>3.792794968854264</v>
+        <v>5.26211433653214</v>
       </c>
       <c r="F5">
-        <v>30.70628172688158</v>
+        <v>30.21272882776486</v>
       </c>
       <c r="G5">
-        <v>2.074737947957457</v>
+        <v>3.644272474614783</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.59604590236444</v>
+        <v>15.44630906621856</v>
       </c>
       <c r="C6">
-        <v>15.96605406594508</v>
+        <v>9.188148855616102</v>
       </c>
       <c r="D6">
-        <v>3.798362538024389</v>
+        <v>5.263736611182353</v>
       </c>
       <c r="F6">
-        <v>30.63335419682902</v>
+        <v>30.20060899069183</v>
       </c>
       <c r="G6">
-        <v>2.075276726001995</v>
+        <v>3.644461673599617</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.15754787882371</v>
+        <v>15.63647505955876</v>
       </c>
       <c r="C7">
-        <v>16.37076921455019</v>
+        <v>9.377690542187178</v>
       </c>
       <c r="D7">
-        <v>3.759949707178382</v>
+        <v>5.252570546079345</v>
       </c>
       <c r="F7">
-        <v>31.14063300677182</v>
+        <v>30.28580560813861</v>
       </c>
       <c r="G7">
-        <v>2.071550840791237</v>
+        <v>3.643159965863108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51207418911761</v>
+        <v>16.45875874611712</v>
       </c>
       <c r="C8">
-        <v>18.06828337257622</v>
+        <v>10.1748350284551</v>
       </c>
       <c r="D8">
-        <v>3.596547931528959</v>
+        <v>5.205634046286368</v>
       </c>
       <c r="F8">
-        <v>33.40379692199335</v>
+        <v>30.6878272153115</v>
       </c>
       <c r="G8">
-        <v>2.055424538319931</v>
+        <v>3.637700435376526</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70565874362179</v>
+        <v>17.99356371313663</v>
       </c>
       <c r="C9">
-        <v>21.0938011906883</v>
+        <v>11.58919431802236</v>
       </c>
       <c r="D9">
-        <v>3.303033518747218</v>
+        <v>5.122027482849446</v>
       </c>
       <c r="F9">
-        <v>37.91964836802475</v>
+        <v>31.56492295315218</v>
       </c>
       <c r="G9">
-        <v>2.024640570915212</v>
+        <v>3.628008214777356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.54943156856648</v>
+        <v>19.06109896774956</v>
       </c>
       <c r="C10">
-        <v>23.14756063989137</v>
+        <v>12.53280519796991</v>
       </c>
       <c r="D10">
-        <v>3.111160900277153</v>
+        <v>5.065779403189628</v>
       </c>
       <c r="F10">
-        <v>41.28892695156154</v>
+        <v>32.25831087965073</v>
       </c>
       <c r="G10">
-        <v>2.002207640482523</v>
+        <v>3.621496827577065</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.79707246070618</v>
+        <v>19.53151757435473</v>
       </c>
       <c r="C11">
-        <v>24.04929482422328</v>
+        <v>12.96794184944514</v>
       </c>
       <c r="D11">
-        <v>3.031572387223408</v>
+        <v>5.041323641164245</v>
       </c>
       <c r="F11">
-        <v>42.87531494114123</v>
+        <v>32.58318188672732</v>
       </c>
       <c r="G11">
-        <v>1.991954538386618</v>
+        <v>3.618665125162606</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.26343758473487</v>
+        <v>19.70731454004647</v>
       </c>
       <c r="C12">
-        <v>24.38648672549967</v>
+        <v>13.12992393975152</v>
       </c>
       <c r="D12">
-        <v>3.002844237690835</v>
+        <v>5.032226520169612</v>
       </c>
       <c r="F12">
-        <v>43.51406593954564</v>
+        <v>32.70745333457587</v>
       </c>
       <c r="G12">
-        <v>1.988056249946762</v>
+        <v>3.617611435901585</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.1632590949588</v>
+        <v>19.66955983072889</v>
       </c>
       <c r="C13">
-        <v>24.31404946246919</v>
+        <v>13.09520763776292</v>
       </c>
       <c r="D13">
-        <v>3.008962819814814</v>
+        <v>5.034178448625772</v>
       </c>
       <c r="F13">
-        <v>43.3764675626062</v>
+        <v>32.68063542001857</v>
       </c>
       <c r="G13">
-        <v>1.988896667407955</v>
+        <v>3.617837540908687</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.8355593410766</v>
+        <v>19.54602820631504</v>
       </c>
       <c r="C14">
-        <v>24.0771189545627</v>
+        <v>12.98134459510669</v>
       </c>
       <c r="D14">
-        <v>3.029178577428114</v>
+        <v>5.04057192786515</v>
       </c>
       <c r="F14">
-        <v>42.92785236076713</v>
+        <v>32.59338135465064</v>
       </c>
       <c r="G14">
-        <v>1.991634192930609</v>
+        <v>3.618578065189559</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63405773330385</v>
+        <v>19.47005253577479</v>
       </c>
       <c r="C15">
-        <v>23.93144843800033</v>
+        <v>12.91110371715435</v>
       </c>
       <c r="D15">
-        <v>3.041755524138936</v>
+        <v>5.044509473867869</v>
       </c>
       <c r="F15">
-        <v>42.653140085064</v>
+        <v>32.54009522601486</v>
       </c>
       <c r="G15">
-        <v>1.9933086830269</v>
+        <v>3.61903407803806</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.46701276973562</v>
+        <v>19.03003638395832</v>
       </c>
       <c r="C16">
-        <v>23.08800861018763</v>
+        <v>12.5057160241552</v>
       </c>
       <c r="D16">
-        <v>3.116541026544002</v>
+        <v>5.067400502505507</v>
       </c>
       <c r="F16">
-        <v>41.18810170100382</v>
+        <v>32.23726065842318</v>
       </c>
       <c r="G16">
-        <v>2.002876020472171</v>
+        <v>3.621684497998837</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.73963593102726</v>
+        <v>18.75608965042116</v>
       </c>
       <c r="C17">
-        <v>22.56252127075084</v>
+        <v>12.2659171622913</v>
       </c>
       <c r="D17">
-        <v>3.1645798395417</v>
+        <v>5.081733967701021</v>
       </c>
       <c r="F17">
-        <v>40.30629889416075</v>
+        <v>32.0538244486609</v>
       </c>
       <c r="G17">
-        <v>2.008727143488856</v>
+        <v>3.623343740175516</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.31690209680231</v>
+        <v>18.59709901212365</v>
       </c>
       <c r="C18">
-        <v>22.25718546384069</v>
+        <v>12.12598000202407</v>
       </c>
       <c r="D18">
-        <v>3.192912020132321</v>
+        <v>5.090084661355553</v>
       </c>
       <c r="F18">
-        <v>39.80053138234497</v>
+        <v>31.94921253749638</v>
       </c>
       <c r="G18">
-        <v>2.012088611585668</v>
+        <v>3.624310370323157</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.1730070395622</v>
+        <v>18.54302800440647</v>
       </c>
       <c r="C19">
-        <v>22.15326210914901</v>
+        <v>12.07825566910447</v>
       </c>
       <c r="D19">
-        <v>3.20261743665471</v>
+        <v>5.092930318737266</v>
       </c>
       <c r="F19">
-        <v>39.62951616827468</v>
+        <v>31.9139498427133</v>
       </c>
       <c r="G19">
-        <v>2.013226312807453</v>
+        <v>3.624639767409546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81751472760222</v>
+        <v>18.78540027465341</v>
       </c>
       <c r="C20">
-        <v>22.61877731264721</v>
+        <v>12.29165263865196</v>
       </c>
       <c r="D20">
-        <v>3.159391498569173</v>
+        <v>5.080197120296861</v>
       </c>
       <c r="F20">
-        <v>40.40001733984037</v>
+        <v>32.07325961663489</v>
       </c>
       <c r="G20">
-        <v>2.008104748227202</v>
+        <v>3.623165841241645</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.93197337489588</v>
+        <v>19.58237707602699</v>
       </c>
       <c r="C21">
-        <v>24.14682369244333</v>
+        <v>13.01489236077183</v>
       </c>
       <c r="D21">
-        <v>3.023199572656339</v>
+        <v>5.038689555703876</v>
       </c>
       <c r="F21">
-        <v>43.05960371131711</v>
+        <v>32.6189769446751</v>
       </c>
       <c r="G21">
-        <v>1.990830617194917</v>
+        <v>3.61836005109306</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.27870618316622</v>
+        <v>20.08954905876768</v>
       </c>
       <c r="C22">
-        <v>25.12080630429581</v>
+        <v>13.47929055191117</v>
       </c>
       <c r="D22">
-        <v>2.942621195527505</v>
+        <v>5.012516912996566</v>
       </c>
       <c r="F22">
-        <v>44.92047478392356</v>
+        <v>32.9828679852987</v>
       </c>
       <c r="G22">
-        <v>1.979444515996814</v>
+        <v>3.615327631248108</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.56295356486633</v>
+        <v>19.82016069319489</v>
       </c>
       <c r="C23">
-        <v>24.60308169656263</v>
+        <v>13.23346075310391</v>
       </c>
       <c r="D23">
-        <v>2.984730856311247</v>
+        <v>5.026398017574722</v>
       </c>
       <c r="F23">
-        <v>43.92672621178762</v>
+        <v>32.78802706565882</v>
       </c>
       <c r="G23">
-        <v>1.985533600783992</v>
+        <v>3.616936211491954</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.78231995068171</v>
+        <v>18.77215358621174</v>
       </c>
       <c r="C24">
-        <v>22.59335403424103</v>
+        <v>12.28002408541068</v>
       </c>
       <c r="D24">
-        <v>3.161734945219052</v>
+        <v>5.08089158585426</v>
       </c>
       <c r="F24">
-        <v>40.35764355953138</v>
+        <v>32.06447032764291</v>
       </c>
       <c r="G24">
-        <v>2.008386140027715</v>
+        <v>3.6232462297521</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61451343611825</v>
+        <v>17.58808969580176</v>
       </c>
       <c r="C25">
-        <v>20.30627239687806</v>
+        <v>11.2230731593029</v>
       </c>
       <c r="D25">
-        <v>3.378935273910891</v>
+        <v>5.143738776083871</v>
       </c>
       <c r="F25">
-        <v>36.68982221908249</v>
+        <v>31.31864873390504</v>
       </c>
       <c r="G25">
-        <v>2.032909719090586</v>
+        <v>3.630522563279182</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_208/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.67683263635534</v>
+        <v>25.12066508047199</v>
       </c>
       <c r="C2">
-        <v>10.38097268680016</v>
+        <v>18.50717636739467</v>
       </c>
       <c r="D2">
-        <v>5.193486321225011</v>
+        <v>3.553898362447198</v>
       </c>
       <c r="F2">
-        <v>30.80293401150741</v>
+        <v>34.02244805858481</v>
       </c>
       <c r="G2">
-        <v>3.63629011236276</v>
+        <v>2.05112261921371</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.03883890731553</v>
+        <v>23.32294356700529</v>
       </c>
       <c r="C3">
-        <v>9.771977088523654</v>
+        <v>17.21087892886631</v>
       </c>
       <c r="D3">
-        <v>5.229356604354764</v>
+        <v>3.679471898860432</v>
       </c>
       <c r="F3">
-        <v>30.47596236322454</v>
+        <v>32.23415050789163</v>
       </c>
       <c r="G3">
-        <v>3.640457525200651</v>
+        <v>2.063671027823775</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63869190515078</v>
+        <v>22.16404985398539</v>
       </c>
       <c r="C4">
-        <v>9.379887392140407</v>
+        <v>16.37545588287081</v>
       </c>
       <c r="D4">
-        <v>5.252441166776948</v>
+        <v>3.759503404831634</v>
       </c>
       <c r="F4">
-        <v>30.28681697868037</v>
+        <v>31.14658319201852</v>
       </c>
       <c r="G4">
-        <v>3.643144890481822</v>
+        <v>2.071507428230089</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.473792629928</v>
+        <v>21.67766943158848</v>
       </c>
       <c r="C5">
-        <v>9.215678490133755</v>
+        <v>16.02488370029559</v>
       </c>
       <c r="D5">
-        <v>5.26211433653214</v>
+        <v>3.792794968854433</v>
       </c>
       <c r="F5">
-        <v>30.21272882776486</v>
+        <v>30.70628172688132</v>
       </c>
       <c r="G5">
-        <v>3.644272474614783</v>
+        <v>2.074737947957455</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.44630906621856</v>
+        <v>21.59604590236445</v>
       </c>
       <c r="C6">
-        <v>9.188148855616102</v>
+        <v>15.96605406594505</v>
       </c>
       <c r="D6">
-        <v>5.263736611182353</v>
+        <v>3.798362538024393</v>
       </c>
       <c r="F6">
-        <v>30.20060899069183</v>
+        <v>30.63335419682891</v>
       </c>
       <c r="G6">
-        <v>3.644461673599617</v>
+        <v>2.075276726001727</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.63647505955876</v>
+        <v>22.15754787882375</v>
       </c>
       <c r="C7">
-        <v>9.377690542187178</v>
+        <v>16.37076921455001</v>
       </c>
       <c r="D7">
-        <v>5.252570546079345</v>
+        <v>3.759949707178319</v>
       </c>
       <c r="F7">
-        <v>30.28580560813861</v>
+        <v>31.14063300677193</v>
       </c>
       <c r="G7">
-        <v>3.643159965863108</v>
+        <v>2.071550840791102</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.45875874611712</v>
+        <v>24.51207418911764</v>
       </c>
       <c r="C8">
-        <v>10.1748350284551</v>
+        <v>18.06828337257599</v>
       </c>
       <c r="D8">
-        <v>5.205634046286368</v>
+        <v>3.596547931528911</v>
       </c>
       <c r="F8">
-        <v>30.6878272153115</v>
+        <v>33.40379692199351</v>
       </c>
       <c r="G8">
-        <v>3.637700435376526</v>
+        <v>2.055424538320198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99356371313663</v>
+        <v>28.70565874362189</v>
       </c>
       <c r="C9">
-        <v>11.58919431802236</v>
+        <v>21.09380119068834</v>
       </c>
       <c r="D9">
-        <v>5.122027482849446</v>
+        <v>3.303033518747343</v>
       </c>
       <c r="F9">
-        <v>31.56492295315218</v>
+        <v>37.9196483680248</v>
       </c>
       <c r="G9">
-        <v>3.628008214777356</v>
+        <v>2.024640570915208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.06109896774956</v>
+        <v>31.5494315685665</v>
       </c>
       <c r="C10">
-        <v>12.53280519796991</v>
+        <v>23.14756063989128</v>
       </c>
       <c r="D10">
-        <v>5.065779403189628</v>
+        <v>3.111160900277084</v>
       </c>
       <c r="F10">
-        <v>32.25831087965073</v>
+        <v>41.28892695156152</v>
       </c>
       <c r="G10">
-        <v>3.621496827577065</v>
+        <v>2.002207640482395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.53151757435473</v>
+        <v>32.7970724607062</v>
       </c>
       <c r="C11">
-        <v>12.96794184944514</v>
+        <v>24.04929482422324</v>
       </c>
       <c r="D11">
-        <v>5.041323641164245</v>
+        <v>3.031572387223508</v>
       </c>
       <c r="F11">
-        <v>32.58318188672732</v>
+        <v>42.87531494114151</v>
       </c>
       <c r="G11">
-        <v>3.618665125162606</v>
+        <v>1.991954538386354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.70731454004647</v>
+        <v>33.2634375847348</v>
       </c>
       <c r="C12">
-        <v>13.12992393975152</v>
+        <v>24.3864867254996</v>
       </c>
       <c r="D12">
-        <v>5.032226520169612</v>
+        <v>3.002844237690956</v>
       </c>
       <c r="F12">
-        <v>32.70745333457587</v>
+        <v>43.51406593954543</v>
       </c>
       <c r="G12">
-        <v>3.617611435901585</v>
+        <v>1.98805624994676</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.66955983072889</v>
+        <v>33.16325909495887</v>
       </c>
       <c r="C13">
-        <v>13.09520763776292</v>
+        <v>24.31404946246923</v>
       </c>
       <c r="D13">
-        <v>5.034178448625772</v>
+        <v>3.00896281981484</v>
       </c>
       <c r="F13">
-        <v>32.68063542001857</v>
+        <v>43.37646756260629</v>
       </c>
       <c r="G13">
-        <v>3.617837540908687</v>
+        <v>1.988896667408351</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.54602820631504</v>
+        <v>32.83555934107662</v>
       </c>
       <c r="C14">
-        <v>12.98134459510669</v>
+        <v>24.07711895456259</v>
       </c>
       <c r="D14">
-        <v>5.04057192786515</v>
+        <v>3.029178577428125</v>
       </c>
       <c r="F14">
-        <v>32.59338135465064</v>
+        <v>42.92785236076709</v>
       </c>
       <c r="G14">
-        <v>3.618578065189559</v>
+        <v>1.991634192930609</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.47005253577479</v>
+        <v>32.63405773330384</v>
       </c>
       <c r="C15">
-        <v>12.91110371715435</v>
+        <v>23.9314484380003</v>
       </c>
       <c r="D15">
-        <v>5.044509473867869</v>
+        <v>3.041755524139105</v>
       </c>
       <c r="F15">
-        <v>32.54009522601486</v>
+        <v>42.65314008506419</v>
       </c>
       <c r="G15">
-        <v>3.61903407803806</v>
+        <v>1.993308683026765</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03003638395832</v>
+        <v>31.46701276973545</v>
       </c>
       <c r="C16">
-        <v>12.5057160241552</v>
+        <v>23.08800861018754</v>
       </c>
       <c r="D16">
-        <v>5.067400502505507</v>
+        <v>3.116541026543988</v>
       </c>
       <c r="F16">
-        <v>32.23726065842318</v>
+        <v>41.18810170100363</v>
       </c>
       <c r="G16">
-        <v>3.621684497998837</v>
+        <v>2.002876020472171</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.75608965042116</v>
+        <v>30.73963593102712</v>
       </c>
       <c r="C17">
-        <v>12.2659171622913</v>
+        <v>22.56252127075084</v>
       </c>
       <c r="D17">
-        <v>5.081733967701021</v>
+        <v>3.164579839541738</v>
       </c>
       <c r="F17">
-        <v>32.0538244486609</v>
+        <v>40.30629889416046</v>
       </c>
       <c r="G17">
-        <v>3.623343740175516</v>
+        <v>2.008727143488976</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.59709901212365</v>
+        <v>30.31690209680232</v>
       </c>
       <c r="C18">
-        <v>12.12598000202407</v>
+        <v>22.2571854638409</v>
       </c>
       <c r="D18">
-        <v>5.090084661355553</v>
+        <v>3.192912020132288</v>
       </c>
       <c r="F18">
-        <v>31.94921253749638</v>
+        <v>39.80053138234506</v>
       </c>
       <c r="G18">
-        <v>3.624310370323157</v>
+        <v>2.01208861158553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.54302800440647</v>
+        <v>30.17300703956229</v>
       </c>
       <c r="C19">
-        <v>12.07825566910447</v>
+        <v>22.15326210914914</v>
       </c>
       <c r="D19">
-        <v>5.092930318737266</v>
+        <v>3.202617436654714</v>
       </c>
       <c r="F19">
-        <v>31.9139498427133</v>
+        <v>39.6295161682746</v>
       </c>
       <c r="G19">
-        <v>3.624639767409546</v>
+        <v>2.013226312807713</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.78540027465341</v>
+        <v>30.81751472760232</v>
       </c>
       <c r="C20">
-        <v>12.29165263865196</v>
+        <v>22.61877731264731</v>
       </c>
       <c r="D20">
-        <v>5.080197120296861</v>
+        <v>3.159391498569195</v>
       </c>
       <c r="F20">
-        <v>32.07325961663489</v>
+        <v>40.4000173398404</v>
       </c>
       <c r="G20">
-        <v>3.623165841241645</v>
+        <v>2.008104748227199</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58237707602699</v>
+        <v>32.93197337489593</v>
       </c>
       <c r="C21">
-        <v>13.01489236077183</v>
+        <v>24.14682369244322</v>
       </c>
       <c r="D21">
-        <v>5.038689555703876</v>
+        <v>3.023199572656392</v>
       </c>
       <c r="F21">
-        <v>32.6189769446751</v>
+        <v>43.05960371131725</v>
       </c>
       <c r="G21">
-        <v>3.61836005109306</v>
+        <v>1.990830617194654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.08954905876768</v>
+        <v>34.27870618316638</v>
       </c>
       <c r="C22">
-        <v>13.47929055191117</v>
+        <v>25.12080630429587</v>
       </c>
       <c r="D22">
-        <v>5.012516912996566</v>
+        <v>2.942621195527507</v>
       </c>
       <c r="F22">
-        <v>32.9828679852987</v>
+        <v>44.92047478392392</v>
       </c>
       <c r="G22">
-        <v>3.615327631248108</v>
+        <v>1.979444515997075</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.82016069319489</v>
+        <v>33.56295356486644</v>
       </c>
       <c r="C23">
-        <v>13.23346075310391</v>
+        <v>24.60308169656249</v>
       </c>
       <c r="D23">
-        <v>5.026398017574722</v>
+        <v>2.98473085631146</v>
       </c>
       <c r="F23">
-        <v>32.78802706565882</v>
+        <v>43.92672621178786</v>
       </c>
       <c r="G23">
-        <v>3.616936211491954</v>
+        <v>1.985533600784127</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.77215358621174</v>
+        <v>30.78231995068175</v>
       </c>
       <c r="C24">
-        <v>12.28002408541068</v>
+        <v>22.59335403424101</v>
       </c>
       <c r="D24">
-        <v>5.08089158585426</v>
+        <v>3.16173494521897</v>
       </c>
       <c r="F24">
-        <v>32.06447032764291</v>
+        <v>40.35764355953153</v>
       </c>
       <c r="G24">
-        <v>3.6232462297521</v>
+        <v>2.008386140027848</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.58808969580176</v>
+        <v>27.61451343611823</v>
       </c>
       <c r="C25">
-        <v>11.2230731593029</v>
+        <v>20.30627239687792</v>
       </c>
       <c r="D25">
-        <v>5.143738776083871</v>
+        <v>3.378935273911077</v>
       </c>
       <c r="F25">
-        <v>31.31864873390504</v>
+        <v>36.68982221908259</v>
       </c>
       <c r="G25">
-        <v>3.630522563279182</v>
+        <v>2.032909719090453</v>
       </c>
       <c r="H25">
         <v>0</v>
